--- a/Projeto_Engenharia_de_Software/Documentação/Estimativa_de_tamanho_Adote_Um_Pet.xlsx
+++ b/Projeto_Engenharia_de_Software/Documentação/Estimativa_de_tamanho_Adote_Um_Pet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UniversityStudies\Projeto_Engenharia_de_Software\Documentação\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D95FFFB7-5270-49C5-99D1-85F5366B0C33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="439" activeTab="2"/>
+    <workbookView xWindow="11655" yWindow="1035" windowWidth="21045" windowHeight="6000" tabRatio="439" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -28,17 +34,25 @@
     <definedName name="TotalHorasProjeto">Geral!#REF!</definedName>
     <definedName name="UC">'RFS ou RFC'!$A$12:$C$42</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -122,12 +136,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -153,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -179,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -205,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -236,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="166">
   <si>
     <t>Estimativa de Esforço de Projeto baseado em                                                                Pontos de Caso de Uso (vs 1.1)</t>
   </si>
@@ -355,12 +369,6 @@
     <t>Complexidade</t>
   </si>
   <si>
-    <t>Secretária</t>
-  </si>
-  <si>
-    <t>Medicos</t>
-  </si>
-  <si>
     <t>Administrador</t>
   </si>
   <si>
@@ -694,9 +702,6 @@
     <t>Alterar Agenda de visitas</t>
   </si>
   <si>
-    <t>Remover visita da agenda</t>
-  </si>
-  <si>
     <t>Cadastrar Animais</t>
   </si>
   <si>
@@ -709,33 +714,6 @@
     <t>Remover Animais</t>
   </si>
   <si>
-    <t>Cadastrar Fotos</t>
-  </si>
-  <si>
-    <t>Consultar Fotos</t>
-  </si>
-  <si>
-    <t>Alterar Fotos</t>
-  </si>
-  <si>
-    <t>Remover Fotos</t>
-  </si>
-  <si>
-    <t>Cadastrar Nova doação</t>
-  </si>
-  <si>
-    <t>Consultar Doações</t>
-  </si>
-  <si>
-    <t>Funcionário, Veterinário</t>
-  </si>
-  <si>
-    <t>Funcionário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funcionário, Veterinário </t>
-  </si>
-  <si>
     <t>&lt;03-06-2020&gt;</t>
   </si>
   <si>
@@ -745,28 +723,37 @@
     <t>&lt;Carlos, Luis, Wállan&gt;</t>
   </si>
   <si>
-    <t>Funcionário, Administrador</t>
-  </si>
-  <si>
-    <t>Funcionário, Agenda de visitas, Veterinário, Administrador</t>
-  </si>
-  <si>
-    <t>Funcionário, Usuário, Veterinário</t>
-  </si>
-  <si>
-    <t>Funcionário,Veterinário</t>
-  </si>
-  <si>
-    <t>Funcionário, Usuário, Veterinário, Administrador</t>
-  </si>
-  <si>
-    <t>Funcionário, Usuário</t>
+    <t>Usuário comum, Administrador</t>
+  </si>
+  <si>
+    <t>Cadastrar doação de produto</t>
+  </si>
+  <si>
+    <t>Consulta doação de produto</t>
+  </si>
+  <si>
+    <t>Remover Agenda de visitas</t>
+  </si>
+  <si>
+    <t>Cadastrar Patrocínio</t>
+  </si>
+  <si>
+    <t>Consultar Patrocínio</t>
+  </si>
+  <si>
+    <t>Alterar Patrocínio</t>
+  </si>
+  <si>
+    <t>Remover Patrocínio</t>
+  </si>
+  <si>
+    <t>Usuário Comum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1868,6 +1855,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1889,7 +1879,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1932,7 +1928,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1975,7 +1977,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2023,7 +2031,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2056" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="2056" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2066,7 +2080,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2054" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="2054" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2109,7 +2129,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2052" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="2052" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2152,7 +2178,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2050" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="2050" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2186,7 +2218,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2224,9 +2256,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2259,9 +2291,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2294,9 +2343,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2469,14 +2535,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
   <dimension ref="A1:AMK37"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:I7"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2572,7 +2638,7 @@
       </c>
       <c r="C6" s="112"/>
       <c r="D6" s="113" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E6" s="113"/>
       <c r="F6" s="113"/>
@@ -2590,7 +2656,7 @@
       </c>
       <c r="C7" s="114"/>
       <c r="D7" s="115" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E7" s="115"/>
       <c r="F7" s="115"/>
@@ -2608,7 +2674,7 @@
       </c>
       <c r="C8" s="116"/>
       <c r="D8" s="3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="114" t="s">
@@ -2698,7 +2764,7 @@
       <c r="D13" s="120"/>
       <c r="E13" s="9">
         <f>(Atores!D10+'RFS ou RFC'!D10)*Fatores!E22*Fatores!G36</f>
-        <v>69.669600000000003</v>
+        <v>64.310399999999987</v>
       </c>
       <c r="F13"/>
       <c r="G13" s="120" t="s">
@@ -2708,7 +2774,7 @@
       <c r="I13" s="120"/>
       <c r="J13" s="10">
         <f t="shared" ref="J13:J20" si="0">$E$13*$E$14*K13</f>
-        <v>9.7537440000000011</v>
+        <v>10.504031999999999</v>
       </c>
       <c r="K13" s="11">
         <f>dadoshistoricos!E31</f>
@@ -2724,7 +2790,7 @@
       <c r="C14" s="121"/>
       <c r="D14" s="121"/>
       <c r="E14" s="13">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F14"/>
       <c r="G14" s="122" t="s">
@@ -2734,7 +2800,7 @@
       <c r="I14" s="122"/>
       <c r="J14" s="14">
         <f t="shared" si="0"/>
-        <v>34.370336000000002</v>
+        <v>37.014207999999996</v>
       </c>
       <c r="K14" s="15">
         <f>dadoshistoricos!F31*0.8</f>
@@ -2756,7 +2822,7 @@
       <c r="I15" s="122"/>
       <c r="J15" s="14">
         <f t="shared" si="0"/>
-        <v>8.5925840000000004</v>
+        <v>9.2535519999999991</v>
       </c>
       <c r="K15" s="16">
         <f>dadoshistoricos!F31*0.2</f>
@@ -2778,7 +2844,7 @@
       <c r="I16" s="122"/>
       <c r="J16" s="14">
         <f t="shared" si="0"/>
-        <v>13.933920000000001</v>
+        <v>15.005759999999997</v>
       </c>
       <c r="K16" s="16">
         <f>dadoshistoricos!G31</f>
@@ -2800,7 +2866,7 @@
       <c r="I17" s="125"/>
       <c r="J17" s="14">
         <f t="shared" si="0"/>
-        <v>116.11600000000001</v>
+        <v>125.04799999999999</v>
       </c>
       <c r="K17" s="16">
         <f>dadoshistoricos!H31</f>
@@ -2822,7 +2888,7 @@
       <c r="I18" s="125"/>
       <c r="J18" s="14">
         <f t="shared" si="0"/>
-        <v>4.6446400000000008</v>
+        <v>5.0019199999999993</v>
       </c>
       <c r="K18" s="16">
         <f>dadoshistoricos!I31</f>
@@ -2843,7 +2909,7 @@
       <c r="I19" s="125"/>
       <c r="J19" s="14">
         <f t="shared" si="0"/>
-        <v>14.166152000000002</v>
+        <v>15.255856</v>
       </c>
       <c r="K19" s="16">
         <f>dadoshistoricos!J31</f>
@@ -2866,7 +2932,7 @@
       <c r="I20" s="125"/>
       <c r="J20" s="14">
         <f t="shared" si="0"/>
-        <v>7.4314240000000007</v>
+        <v>8.0030719999999995</v>
       </c>
       <c r="K20" s="16">
         <f>dadoshistoricos!K31</f>
@@ -2887,7 +2953,7 @@
       <c r="I21" s="126"/>
       <c r="J21" s="18">
         <f>SUM(J13:J20)</f>
-        <v>209.00880000000004</v>
+        <v>225.08639999999997</v>
       </c>
       <c r="K21" s="19">
         <f>SUM(K13:K20)</f>
@@ -3026,14 +3092,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
   <dimension ref="A1:AMK18"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3192,7 +3258,7 @@
       </c>
       <c r="D9" s="34">
         <f>COUNTIF(Atores,B9)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
@@ -3211,7 +3277,7 @@
       </c>
       <c r="D10" s="36">
         <f>(C7*D7)+(C8*D8)+(C9*D9)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
@@ -3252,7 +3318,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="38" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="C14" s="39" t="s">
         <v>35</v>
@@ -3261,7 +3327,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="39" t="s">
         <v>35</v>
@@ -3269,12 +3335,8 @@
       <c r="F15"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>35</v>
-      </c>
+      <c r="B16" s="40"/>
+      <c r="C16" s="39"/>
       <c r="F16"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -3284,11 +3346,11 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="43">
         <f>D10</f>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3296,7 +3358,7 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C14:C17">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C14:C17" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Simples,Médio,Complexo"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3309,14 +3371,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
   <dimension ref="A1:AMK1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3348,7 +3410,7 @@
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2" s="130" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="130"/>
       <c r="D2" s="130"/>
@@ -3388,13 +3450,13 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6" s="46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="47" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="49"/>
       <c r="H6"/>
@@ -3410,7 +3472,7 @@
       </c>
       <c r="D7" s="9">
         <f>COUNTIF(CUC,B7)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E7" s="52"/>
       <c r="H7"/>
@@ -3426,7 +3488,7 @@
       </c>
       <c r="D8" s="28">
         <f>COUNTIF(CUC,B8)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8" s="52"/>
       <c r="H8"/>
@@ -3452,11 +3514,11 @@
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10" s="57" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" s="58">
         <f>(C7*D7)+(C8*D8)+(C9*D9)</f>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E10"/>
       <c r="H10"/>
@@ -3473,29 +3535,29 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="61" t="s">
         <v>47</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="61" t="s">
-        <v>49</v>
       </c>
       <c r="D12" s="60" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H12"/>
       <c r="O12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C13" s="65">
         <v>2</v>
@@ -3505,7 +3567,7 @@
         <v>Simples</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H13"/>
       <c r="O13" s="67">
@@ -3514,19 +3576,19 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="63" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" s="108" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C14" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="66" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="64" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="H14"/>
       <c r="O14" s="67">
@@ -3535,19 +3597,19 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="63" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C15" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="66" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="64" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="H15"/>
       <c r="O15" s="67">
@@ -3556,19 +3618,19 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="63" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C16" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D16" s="66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="H16"/>
       <c r="O16" s="67">
@@ -3577,19 +3639,19 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17" s="109" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C17" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="64" t="s">
-        <v>165</v>
+      <c r="E17" s="38" t="s">
+        <v>39</v>
       </c>
       <c r="H17" s="44"/>
       <c r="O17" s="67">
@@ -3598,19 +3660,19 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="63" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" s="110" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C18" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="64" t="s">
-        <v>171</v>
+        <v>33</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>39</v>
       </c>
       <c r="H18" s="44"/>
       <c r="O18" s="67">
@@ -3619,19 +3681,19 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="63" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" s="109" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C19" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="64" t="s">
-        <v>172</v>
+      <c r="E19" s="38" t="s">
+        <v>39</v>
       </c>
       <c r="H19" s="44"/>
       <c r="O19" s="67">
@@ -3640,19 +3702,19 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="63" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C20" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="64" t="s">
-        <v>163</v>
+      <c r="E20" s="38" t="s">
+        <v>39</v>
       </c>
       <c r="H20" s="44"/>
       <c r="O20" s="67">
@@ -3661,19 +3723,19 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="63" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C21" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="64" t="s">
-        <v>163</v>
+      <c r="E21" s="38" t="s">
+        <v>39</v>
       </c>
       <c r="O21" s="67">
         <v>11</v>
@@ -3681,19 +3743,19 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="63" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C22" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="64" t="s">
-        <v>173</v>
+        <v>33</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>157</v>
       </c>
       <c r="O22" s="67">
         <v>12</v>
@@ -3701,10 +3763,10 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C23" s="65">
         <v>1</v>
@@ -3712,8 +3774,8 @@
       <c r="D23" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="64" t="s">
-        <v>164</v>
+      <c r="E23" s="38" t="s">
+        <v>39</v>
       </c>
       <c r="O23" s="67">
         <v>13</v>
@@ -3721,19 +3783,19 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="63" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B24" s="64" t="s">
         <v>160</v>
       </c>
       <c r="C24" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="64" t="s">
-        <v>164</v>
+      <c r="E24" s="38" t="s">
+        <v>39</v>
       </c>
       <c r="O24" s="67">
         <v>14</v>
@@ -3741,10 +3803,10 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="63" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B25" s="64" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C25" s="65">
         <v>2</v>
@@ -3752,8 +3814,8 @@
       <c r="D25" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="64" t="s">
-        <v>174</v>
+      <c r="E25" s="38" t="s">
+        <v>157</v>
       </c>
       <c r="O25" s="67">
         <v>15</v>
@@ -3761,10 +3823,10 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="63" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B26" s="64" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C26" s="65">
         <v>1</v>
@@ -3772,8 +3834,8 @@
       <c r="D26" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="64" t="s">
-        <v>164</v>
+      <c r="E26" s="38" t="s">
+        <v>39</v>
       </c>
       <c r="O26" s="67">
         <v>16</v>
@@ -3781,10 +3843,10 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="63" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B27" s="64" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C27" s="65">
         <v>1</v>
@@ -3792,8 +3854,8 @@
       <c r="D27" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="64" t="s">
-        <v>164</v>
+      <c r="E27" s="38" t="s">
+        <v>39</v>
       </c>
       <c r="O27" s="67">
         <v>18</v>
@@ -3801,19 +3863,19 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="63" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C28" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="64" t="s">
-        <v>163</v>
+      <c r="E28" s="38" t="s">
+        <v>39</v>
       </c>
       <c r="O28" s="67">
         <v>19</v>
@@ -3821,10 +3883,10 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="63" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C29" s="65">
         <v>1</v>
@@ -3832,8 +3894,8 @@
       <c r="D29" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="64" t="s">
-        <v>164</v>
+      <c r="E29" s="38" t="s">
+        <v>39</v>
       </c>
       <c r="O29" s="67">
         <v>21</v>
@@ -3841,10 +3903,10 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="63" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C30" s="65">
         <v>1</v>
@@ -3852,26 +3914,26 @@
       <c r="D30" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="64" t="s">
-        <v>164</v>
+      <c r="E30" s="38" t="s">
+        <v>39</v>
       </c>
       <c r="O30" s="67"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="C31" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" s="66" t="s">
         <v>33</v>
       </c>
       <c r="E31" s="64" t="s">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="O31" s="67">
         <v>22</v>
@@ -3879,19 +3941,19 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="C32" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" s="66" t="s">
         <v>33</v>
       </c>
       <c r="E32" s="64" t="s">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="O32" s="67">
         <v>23</v>
@@ -3899,19 +3961,19 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="63" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B33" s="64" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="C33" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="66" t="s">
         <v>33</v>
       </c>
       <c r="E33" s="64" t="s">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="O33" s="67">
         <v>24</v>
@@ -3919,19 +3981,19 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="63" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B34" s="64" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="C34" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" s="66" t="s">
         <v>33</v>
       </c>
       <c r="E34" s="64" t="s">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="O34" s="67">
         <v>25</v>
@@ -4009,7 +4071,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="68" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43" s="68">
         <f>SUBTOTAL(103,B13:B42)</f>
@@ -8878,19 +8940,19 @@
     <mergeCell ref="A11:C11"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" sqref="B13 B15:B16 B20:B42">
+    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" sqref="B13 B15:B16 B20:B42" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C12">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D13:D42">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D13:D42" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>$B$7:$B$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="C13:C42">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="C13:C42" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8903,7 +8965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
@@ -8968,7 +9030,7 @@
     </row>
     <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="129" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" s="129"/>
       <c r="D4" s="129"/>
@@ -9012,7 +9074,7 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="132" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="132"/>
       <c r="D7" s="132"/>
@@ -9028,16 +9090,16 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="71" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D8" s="72" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="72" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
@@ -9050,10 +9112,10 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" s="73" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" s="30">
         <v>2</v>
@@ -9072,10 +9134,10 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" s="73" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" s="30">
         <v>1</v>
@@ -9094,10 +9156,10 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" s="30">
         <v>1</v>
@@ -9116,10 +9178,10 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" s="30">
         <v>1</v>
@@ -9138,10 +9200,10 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D13" s="30">
         <v>1</v>
@@ -9160,10 +9222,10 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D14" s="30">
         <v>0.5</v>
@@ -9182,10 +9244,10 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D15" s="30">
         <v>0.5</v>
@@ -9204,10 +9266,10 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C16" s="73" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D16" s="30">
         <v>2</v>
@@ -9226,10 +9288,10 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C17" s="73" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D17" s="30">
         <v>1</v>
@@ -9248,10 +9310,10 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D18" s="30">
         <v>1</v>
@@ -9270,10 +9332,10 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" s="73" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D19" s="30">
         <v>1</v>
@@ -9292,10 +9354,10 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C20" s="73" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D20" s="30">
         <v>1</v>
@@ -9314,10 +9376,10 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C21" s="73" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D21" s="30">
         <v>1</v>
@@ -9336,7 +9398,7 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="133" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C22" s="133"/>
       <c r="D22" s="133"/>
@@ -9387,7 +9449,7 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="134" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C26" s="134"/>
       <c r="D26" s="134"/>
@@ -9398,10 +9460,10 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="78" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27" s="135" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D27" s="135"/>
       <c r="E27" s="135"/>
@@ -9409,16 +9471,16 @@
         <v>31</v>
       </c>
       <c r="G27" s="78" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I27"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C28" s="136" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D28" s="136"/>
       <c r="E28" s="136"/>
@@ -9432,10 +9494,10 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C29" s="136" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D29" s="136"/>
       <c r="E29" s="136"/>
@@ -9449,10 +9511,10 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C30" s="136" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D30" s="136"/>
       <c r="E30" s="136"/>
@@ -9466,10 +9528,10 @@
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C31" s="136" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" s="136"/>
       <c r="E31" s="136"/>
@@ -9483,10 +9545,10 @@
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C32" s="136" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="136"/>
       <c r="E32" s="136"/>
@@ -9500,10 +9562,10 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C33" s="136" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D33" s="136"/>
       <c r="E33" s="136"/>
@@ -9517,10 +9579,10 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C34" s="136" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="136"/>
       <c r="E34" s="136"/>
@@ -9534,10 +9596,10 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C35" s="136" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="136"/>
       <c r="E35" s="136"/>
@@ -9551,7 +9613,7 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="133" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C36" s="133"/>
       <c r="D36" s="133"/>
@@ -9582,11 +9644,11 @@
     <mergeCell ref="C27:E27"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="whole" showErrorMessage="1" promptTitle="Influência" sqref="E9:E21 I9:I21">
+    <dataValidation type="whole" showErrorMessage="1" promptTitle="Influência" sqref="E9:E21 I9:I21" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="G28:G35 I28:I35">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="G28:G35 I28:I35" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
@@ -9597,7 +9659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
@@ -9621,7 +9683,7 @@
     <row r="1" spans="1:55" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="80"/>
       <c r="B1" s="137" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C1" s="137"/>
       <c r="D1" s="137"/>
@@ -9851,37 +9913,37 @@
     <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A5" s="80"/>
       <c r="B5" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="E5" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="F5" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="G5" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="F5" s="84" t="s">
+      <c r="H5" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="84" t="s">
+      <c r="I5" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="H5" s="84" t="s">
+      <c r="J5" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="I5" s="84" t="s">
+      <c r="K5" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="J5" s="84" t="s">
+      <c r="L5" s="85" t="s">
         <v>120</v>
-      </c>
-      <c r="K5" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="L5" s="85" t="s">
-        <v>122</v>
       </c>
       <c r="M5" s="80"/>
       <c r="N5" s="80"/>
@@ -9930,7 +9992,7 @@
     <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A6" s="80"/>
       <c r="B6" s="86" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C6" s="87">
         <v>190</v>
@@ -10011,7 +10073,7 @@
     <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A7" s="80"/>
       <c r="B7" s="86" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C7" s="88">
         <v>130</v>
@@ -10092,7 +10154,7 @@
     <row r="8" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A8" s="80"/>
       <c r="B8" s="86" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C8" s="88">
         <v>140</v>
@@ -10173,7 +10235,7 @@
     <row r="9" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A9" s="80"/>
       <c r="B9" s="86" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C9" s="88">
         <v>125</v>
@@ -11337,7 +11399,7 @@
     <row r="29" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A29" s="80"/>
       <c r="B29" s="99" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C29" s="100"/>
       <c r="D29" s="100">
@@ -11428,7 +11490,7 @@
       <c r="H30" s="80"/>
       <c r="I30" s="80"/>
       <c r="J30" s="138" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K30" s="138"/>
       <c r="L30" s="102">
@@ -11481,7 +11543,7 @@
     <row r="31" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A31" s="80"/>
       <c r="B31" s="103" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C31" s="104"/>
       <c r="D31" s="105"/>
